--- a/data/evaluation/evaluation_North_Spring_Lemons.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Lemons.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2551.710921325052</v>
+        <v>2725.623964803312</v>
       </c>
       <c r="C3" t="n">
-        <v>11738175.89304354</v>
+        <v>12572958.50173919</v>
       </c>
       <c r="D3" t="n">
-        <v>3426.10214282113</v>
+        <v>3545.836784419045</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09755457745857754</v>
+        <v>-0.1756092498118613</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2559.644368881277</v>
+        <v>2590.073000015627</v>
       </c>
       <c r="C4" t="n">
-        <v>11576140.20184406</v>
+        <v>11638400.80848237</v>
       </c>
       <c r="D4" t="n">
-        <v>3402.372731175123</v>
+        <v>3411.510048128595</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.08240375537104638</v>
+        <v>-0.0882253084329423</v>
       </c>
     </row>
     <row r="5">
